--- a/main_code/spider/resource/data/2025.9.1_for_computer.xlsx
+++ b/main_code/spider/resource/data/2025.9.1_for_computer.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R262"/>
+  <dimension ref="A1:R266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>001030</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
@@ -1708,13 +1708,9 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1" t="inlineStr">
-        <is>
-          <t>密码改了，已提醒未回</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n"/>
       <c r="P23" s="1" t="n"/>
@@ -1980,7 +1976,7 @@
       <c r="P28" s="1" t="n"/>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -8474,7 +8470,7 @@
       <c r="P149" s="1" t="n"/>
       <c r="Q149" s="1" t="n"/>
       <c r="R149" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150">
@@ -9000,7 +8996,7 @@
       <c r="P159" s="1" t="n"/>
       <c r="Q159" s="1" t="n"/>
       <c r="R159" s="1" t="n">
-        <v>59.16</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="160">
@@ -9210,7 +9206,7 @@
       <c r="P163" s="1" t="n"/>
       <c r="Q163" s="1" t="n"/>
       <c r="R163" s="1" t="n">
-        <v>59.07</v>
+        <v>63.07</v>
       </c>
     </row>
     <row r="164">
@@ -9262,7 +9258,7 @@
       <c r="P164" s="1" t="n"/>
       <c r="Q164" s="1" t="n"/>
       <c r="R164" s="1" t="n">
-        <v>58.18</v>
+        <v>62.18</v>
       </c>
     </row>
     <row r="165">
@@ -9314,7 +9310,7 @@
       <c r="P165" s="1" t="n"/>
       <c r="Q165" s="1" t="n"/>
       <c r="R165" s="1" t="n">
-        <v>57.75</v>
+        <v>61.75</v>
       </c>
     </row>
     <row r="166">
@@ -9526,7 +9522,7 @@
       <c r="P169" s="1" t="n"/>
       <c r="Q169" s="1" t="n"/>
       <c r="R169" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170">
@@ -9578,7 +9574,7 @@
       <c r="P170" s="1" t="n"/>
       <c r="Q170" s="1" t="n"/>
       <c r="R170" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171">
@@ -9848,7 +9844,7 @@
       <c r="P175" s="1" t="n"/>
       <c r="Q175" s="1" t="n"/>
       <c r="R175" s="1" t="n">
-        <v>59.76</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="176">
@@ -9902,7 +9898,7 @@
       <c r="P176" s="1" t="n"/>
       <c r="Q176" s="1" t="n"/>
       <c r="R176" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177">
@@ -9956,7 +9952,7 @@
       <c r="P177" s="1" t="n"/>
       <c r="Q177" s="1" t="n"/>
       <c r="R177" s="1" t="n">
-        <v>55.78</v>
+        <v>59.78</v>
       </c>
     </row>
     <row r="178">
@@ -10010,7 +10006,7 @@
       <c r="P178" s="1" t="n"/>
       <c r="Q178" s="1" t="n"/>
       <c r="R178" s="1" t="n">
-        <v>55.9</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="179">
@@ -10064,7 +10060,7 @@
       <c r="P179" s="1" t="n"/>
       <c r="Q179" s="1" t="n"/>
       <c r="R179" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180">
@@ -10116,7 +10112,7 @@
       <c r="P180" s="1" t="n"/>
       <c r="Q180" s="1" t="n"/>
       <c r="R180" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181">
@@ -10168,7 +10164,7 @@
       <c r="P181" s="1" t="n"/>
       <c r="Q181" s="1" t="n"/>
       <c r="R181" s="1" t="n">
-        <v>55.82</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="182">
@@ -10220,7 +10216,7 @@
       <c r="P182" s="1" t="n"/>
       <c r="Q182" s="1" t="n"/>
       <c r="R182" s="1" t="n">
-        <v>51.95</v>
+        <v>55.95</v>
       </c>
     </row>
     <row r="183">
@@ -10272,7 +10268,7 @@
       <c r="P183" s="1" t="n"/>
       <c r="Q183" s="1" t="n"/>
       <c r="R183" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184">
@@ -10326,7 +10322,7 @@
       <c r="P184" s="1" t="n"/>
       <c r="Q184" s="1" t="n"/>
       <c r="R184" s="1" t="n">
-        <v>47.89</v>
+        <v>51.89</v>
       </c>
     </row>
     <row r="185">
@@ -10380,7 +10376,7 @@
       <c r="P185" s="1" t="n"/>
       <c r="Q185" s="1" t="n"/>
       <c r="R185" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186">
@@ -10434,7 +10430,7 @@
       <c r="P186" s="1" t="n"/>
       <c r="Q186" s="1" t="n"/>
       <c r="R186" s="1" t="n">
-        <v>47.98</v>
+        <v>51.98</v>
       </c>
     </row>
     <row r="187">
@@ -10488,7 +10484,7 @@
       <c r="P187" s="1" t="n"/>
       <c r="Q187" s="1" t="n"/>
       <c r="R187" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="188">
@@ -10542,7 +10538,7 @@
       <c r="P188" s="1" t="n"/>
       <c r="Q188" s="1" t="n"/>
       <c r="R188" s="1" t="n">
-        <v>49.13</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="189">
@@ -10596,7 +10592,7 @@
       <c r="P189" s="1" t="n"/>
       <c r="Q189" s="1" t="n"/>
       <c r="R189" s="1" t="n">
-        <v>50.39</v>
+        <v>54.39</v>
       </c>
     </row>
     <row r="190">
@@ -10650,7 +10646,7 @@
       <c r="P190" s="1" t="n"/>
       <c r="Q190" s="1" t="n"/>
       <c r="R190" s="1" t="n">
-        <v>59.89</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="191">
@@ -10702,7 +10698,7 @@
       <c r="P191" s="1" t="n"/>
       <c r="Q191" s="1" t="n"/>
       <c r="R191" s="1" t="n">
-        <v>59.96</v>
+        <v>63.96</v>
       </c>
     </row>
     <row r="192">
@@ -10754,7 +10750,7 @@
       <c r="P192" s="1" t="n"/>
       <c r="Q192" s="1" t="n"/>
       <c r="R192" s="1" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193">
@@ -10970,7 +10966,7 @@
       <c r="P196" s="1" t="n"/>
       <c r="Q196" s="1" t="n"/>
       <c r="R196" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197">
@@ -11024,7 +11020,7 @@
       <c r="P197" s="1" t="n"/>
       <c r="Q197" s="1" t="n"/>
       <c r="R197" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198">
@@ -11078,7 +11074,7 @@
       <c r="P198" s="1" t="n"/>
       <c r="Q198" s="1" t="n"/>
       <c r="R198" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199">
@@ -11132,7 +11128,7 @@
       <c r="P199" s="1" t="n"/>
       <c r="Q199" s="1" t="n"/>
       <c r="R199" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200">
@@ -11186,7 +11182,7 @@
       <c r="P200" s="1" t="n"/>
       <c r="Q200" s="1" t="n"/>
       <c r="R200" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="201">
@@ -11240,7 +11236,7 @@
       <c r="P201" s="1" t="n"/>
       <c r="Q201" s="1" t="n"/>
       <c r="R201" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="202">
@@ -11292,7 +11288,7 @@
       <c r="P202" s="1" t="n"/>
       <c r="Q202" s="1" t="n"/>
       <c r="R202" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203">
@@ -11344,7 +11340,7 @@
       <c r="P203" s="1" t="n"/>
       <c r="Q203" s="1" t="n"/>
       <c r="R203" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204">
@@ -11396,7 +11392,7 @@
       <c r="P204" s="1" t="n"/>
       <c r="Q204" s="1" t="n"/>
       <c r="R204" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205">
@@ -11448,7 +11444,7 @@
       <c r="P205" s="1" t="n"/>
       <c r="Q205" s="1" t="n"/>
       <c r="R205" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206">
@@ -11500,7 +11496,7 @@
       <c r="P206" s="1" t="n"/>
       <c r="Q206" s="1" t="n"/>
       <c r="R206" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207">
@@ -11552,7 +11548,7 @@
       <c r="P207" s="1" t="n"/>
       <c r="Q207" s="1" t="n"/>
       <c r="R207" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208">
@@ -11604,7 +11600,7 @@
       <c r="P208" s="1" t="n"/>
       <c r="Q208" s="1" t="n"/>
       <c r="R208" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209">
@@ -11656,7 +11652,7 @@
       <c r="P209" s="1" t="n"/>
       <c r="Q209" s="1" t="n"/>
       <c r="R209" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210">
@@ -11708,7 +11704,7 @@
       <c r="P210" s="1" t="n"/>
       <c r="Q210" s="1" t="n"/>
       <c r="R210" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211">
@@ -11762,7 +11758,7 @@
       <c r="P211" s="1" t="n"/>
       <c r="Q211" s="1" t="n"/>
       <c r="R211" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212">
@@ -11816,7 +11812,7 @@
       <c r="P212" s="1" t="n"/>
       <c r="Q212" s="1" t="n"/>
       <c r="R212" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213">
@@ -11870,7 +11866,7 @@
       <c r="P213" s="1" t="n"/>
       <c r="Q213" s="1" t="n"/>
       <c r="R213" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214">
@@ -11976,7 +11972,7 @@
       <c r="P215" s="1" t="n"/>
       <c r="Q215" s="1" t="n"/>
       <c r="R215" s="1" t="n">
-        <v>33.12</v>
+        <v>37.12</v>
       </c>
     </row>
     <row r="216">
@@ -12028,7 +12024,7 @@
       <c r="P216" s="1" t="n"/>
       <c r="Q216" s="1" t="n"/>
       <c r="R216" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -12080,7 +12076,7 @@
       <c r="P217" s="1" t="n"/>
       <c r="Q217" s="1" t="n"/>
       <c r="R217" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -12134,7 +12130,7 @@
       <c r="P218" s="1" t="n"/>
       <c r="Q218" s="1" t="n"/>
       <c r="R218" s="1" t="n">
-        <v>35.42</v>
+        <v>39.42</v>
       </c>
     </row>
     <row r="219">
@@ -12188,7 +12184,7 @@
       <c r="P219" s="1" t="n"/>
       <c r="Q219" s="1" t="n"/>
       <c r="R219" s="1" t="n">
-        <v>38.55</v>
+        <v>42.55</v>
       </c>
     </row>
     <row r="220">
@@ -12242,7 +12238,7 @@
       <c r="P220" s="1" t="n"/>
       <c r="Q220" s="1" t="n"/>
       <c r="R220" s="1" t="n">
-        <v>36.59</v>
+        <v>40.59</v>
       </c>
     </row>
     <row r="221">
@@ -12294,7 +12290,7 @@
       <c r="P221" s="1" t="n"/>
       <c r="Q221" s="1" t="n"/>
       <c r="R221" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222">
@@ -12346,7 +12342,7 @@
       <c r="P222" s="1" t="n"/>
       <c r="Q222" s="1" t="n"/>
       <c r="R222" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223">
@@ -12398,7 +12394,7 @@
       <c r="P223" s="1" t="n"/>
       <c r="Q223" s="1" t="n"/>
       <c r="R223" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224">
@@ -12450,7 +12446,7 @@
       <c r="P224" s="1" t="n"/>
       <c r="Q224" s="1" t="n"/>
       <c r="R224" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225">
@@ -12504,7 +12500,7 @@
       <c r="P225" s="1" t="n"/>
       <c r="Q225" s="1" t="n"/>
       <c r="R225" s="1" t="n">
-        <v>42.29</v>
+        <v>46.16999999999999</v>
       </c>
     </row>
     <row r="226">
@@ -12558,7 +12554,7 @@
       <c r="P226" s="1" t="n"/>
       <c r="Q226" s="1" t="n"/>
       <c r="R226" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227">
@@ -12612,7 +12608,7 @@
       <c r="P227" s="1" t="n"/>
       <c r="Q227" s="1" t="n"/>
       <c r="R227" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="228">
@@ -12666,7 +12662,7 @@
       <c r="P228" s="1" t="n"/>
       <c r="Q228" s="1" t="n"/>
       <c r="R228" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229">
@@ -12718,7 +12714,7 @@
       <c r="P229" s="1" t="n"/>
       <c r="Q229" s="1" t="n"/>
       <c r="R229" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230">
@@ -12770,7 +12766,7 @@
       <c r="P230" s="1" t="n"/>
       <c r="Q230" s="1" t="n"/>
       <c r="R230" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231">
@@ -12822,7 +12818,7 @@
       <c r="P231" s="1" t="n"/>
       <c r="Q231" s="1" t="n"/>
       <c r="R231" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232">
@@ -12876,7 +12872,7 @@
       <c r="P232" s="1" t="n"/>
       <c r="Q232" s="1" t="n"/>
       <c r="R232" s="1" t="n">
-        <v>25.74</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="233">
@@ -12930,7 +12926,7 @@
       <c r="P233" s="1" t="n"/>
       <c r="Q233" s="1" t="n"/>
       <c r="R233" s="1" t="n">
-        <v>39.05</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="234">
@@ -12976,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="L234" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M234" s="1" t="n"/>
       <c r="N234" s="1" t="n"/>
@@ -12984,7 +12980,7 @@
       <c r="P234" s="1" t="n"/>
       <c r="Q234" s="1" t="n"/>
       <c r="R234" s="1" t="n">
-        <v>42.48999999999999</v>
+        <v>46.41</v>
       </c>
     </row>
     <row r="235">
@@ -13030,7 +13026,7 @@
         <v>1</v>
       </c>
       <c r="L235" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M235" s="1" t="n"/>
       <c r="N235" s="1" t="n"/>
@@ -13038,7 +13034,7 @@
       <c r="P235" s="1" t="n"/>
       <c r="Q235" s="1" t="n"/>
       <c r="R235" s="1" t="n">
-        <v>23.84</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="236">
@@ -13084,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="L236" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M236" s="1" t="n"/>
       <c r="N236" s="1" t="n"/>
@@ -13092,7 +13088,7 @@
       <c r="P236" s="1" t="n"/>
       <c r="Q236" s="1" t="n"/>
       <c r="R236" s="1" t="n">
-        <v>39.39</v>
+        <v>43.28</v>
       </c>
     </row>
     <row r="237">
@@ -13138,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="L237" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M237" s="1" t="n"/>
       <c r="N237" s="1" t="n"/>
@@ -13146,7 +13142,7 @@
       <c r="P237" s="1" t="n"/>
       <c r="Q237" s="1" t="n"/>
       <c r="R237" s="1" t="n">
-        <v>44.32</v>
+        <v>48.24</v>
       </c>
     </row>
     <row r="238">
@@ -13200,7 +13196,7 @@
       <c r="P238" s="1" t="n"/>
       <c r="Q238" s="1" t="n"/>
       <c r="R238" s="1" t="n">
-        <v>28.39</v>
+        <v>32.29</v>
       </c>
     </row>
     <row r="239">
@@ -13254,7 +13250,7 @@
       <c r="P239" s="1" t="n"/>
       <c r="Q239" s="1" t="n"/>
       <c r="R239" s="1" t="n">
-        <v>29.64</v>
+        <v>33.56999999999999</v>
       </c>
     </row>
     <row r="240">
@@ -13306,7 +13302,7 @@
       <c r="P240" s="1" t="n"/>
       <c r="Q240" s="1" t="n"/>
       <c r="R240" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241">
@@ -13358,7 +13354,7 @@
       <c r="P241" s="1" t="n"/>
       <c r="Q241" s="1" t="n"/>
       <c r="R241" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242">
@@ -13412,7 +13408,7 @@
       <c r="P242" s="1" t="n"/>
       <c r="Q242" s="1" t="n"/>
       <c r="R242" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243">
@@ -13466,7 +13462,7 @@
       <c r="P243" s="1" t="n"/>
       <c r="Q243" s="1" t="n"/>
       <c r="R243" s="1" t="n">
-        <v>18.84</v>
+        <v>22.84</v>
       </c>
     </row>
     <row r="244">
@@ -13518,7 +13514,7 @@
       <c r="P244" s="1" t="n"/>
       <c r="Q244" s="1" t="n"/>
       <c r="R244" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245">
@@ -13572,7 +13568,7 @@
       <c r="P245" s="1" t="n"/>
       <c r="Q245" s="1" t="n"/>
       <c r="R245" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246">
@@ -13626,7 +13622,7 @@
       <c r="P246" s="1" t="n"/>
       <c r="Q246" s="1" t="n"/>
       <c r="R246" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247">
@@ -13680,7 +13676,7 @@
       <c r="P247" s="1" t="n"/>
       <c r="Q247" s="1" t="n"/>
       <c r="R247" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248">
@@ -13732,7 +13728,7 @@
       <c r="P248" s="1" t="n"/>
       <c r="Q248" s="1" t="n"/>
       <c r="R248" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -13786,7 +13782,7 @@
       <c r="P249" s="1" t="n"/>
       <c r="Q249" s="1" t="n"/>
       <c r="R249" s="1" t="n">
-        <v>36.15</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="250">
@@ -13838,7 +13834,7 @@
       <c r="P250" s="1" t="n"/>
       <c r="Q250" s="1" t="n"/>
       <c r="R250" s="1" t="n">
-        <v>27.27</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="251">
@@ -13892,7 +13888,7 @@
       <c r="P251" s="1" t="n"/>
       <c r="Q251" s="1" t="n"/>
       <c r="R251" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -13946,7 +13942,7 @@
       <c r="P252" s="1" t="n"/>
       <c r="Q252" s="1" t="n"/>
       <c r="R252" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
@@ -14000,7 +13996,7 @@
       <c r="P253" s="1" t="n"/>
       <c r="Q253" s="1" t="n"/>
       <c r="R253" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
@@ -14054,7 +14050,7 @@
       <c r="P254" s="1" t="n"/>
       <c r="Q254" s="1" t="n"/>
       <c r="R254" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255">
@@ -14108,7 +14104,7 @@
       <c r="P255" s="1" t="n"/>
       <c r="Q255" s="1" t="n"/>
       <c r="R255" s="1" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="256">
@@ -14162,7 +14158,7 @@
       <c r="P256" s="1" t="n"/>
       <c r="Q256" s="1" t="n"/>
       <c r="R256" s="1" t="n">
-        <v>11.69</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="257">
@@ -14216,7 +14212,7 @@
       <c r="P257" s="1" t="n"/>
       <c r="Q257" s="1" t="n"/>
       <c r="R257" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
@@ -14268,7 +14264,7 @@
       <c r="P258" s="1" t="n"/>
       <c r="Q258" s="1" t="n"/>
       <c r="R258" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259">
@@ -14302,7 +14298,11 @@
           <t>追逐</t>
         </is>
       </c>
-      <c r="I259" s="1" t="n"/>
+      <c r="I259" s="1" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
       <c r="J259" s="1" t="n">
         <v>60</v>
       </c>
@@ -14317,10 +14317,8 @@
       <c r="O259" s="1" t="n"/>
       <c r="P259" s="1" t="n"/>
       <c r="Q259" s="1" t="n"/>
-      <c r="R259" s="1" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="R259" s="1" t="n">
+        <v>38.60999999999999</v>
       </c>
     </row>
     <row r="260">
@@ -14354,7 +14352,11 @@
           <t>追逐</t>
         </is>
       </c>
-      <c r="I260" s="1" t="n"/>
+      <c r="I260" s="1" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
       <c r="J260" s="1" t="n">
         <v>60</v>
       </c>
@@ -14369,10 +14371,8 @@
       <c r="O260" s="1" t="n"/>
       <c r="P260" s="1" t="n"/>
       <c r="Q260" s="1" t="n"/>
-      <c r="R260" s="1" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="R260" s="1" t="n">
+        <v>42.09999999999999</v>
       </c>
     </row>
     <row r="261">
@@ -14404,7 +14404,11 @@
       <c r="H261" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="I261" s="1" t="n"/>
+      <c r="I261" s="1" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
       <c r="J261" s="1" t="n">
         <v>60</v>
       </c>
@@ -14419,10 +14423,8 @@
       <c r="O261" s="1" t="n"/>
       <c r="P261" s="1" t="n"/>
       <c r="Q261" s="1" t="n"/>
-      <c r="R261" s="1" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="R261" s="1" t="n">
+        <v>41.01</v>
       </c>
     </row>
     <row r="262">
@@ -14451,8 +14453,14 @@
       <c r="G262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H262" s="1" t="n"/>
-      <c r="I262" s="1" t="n"/>
+      <c r="H262" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="I262" s="1" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
       <c r="J262" s="1" t="n">
         <v>60</v>
       </c>
@@ -14467,7 +14475,223 @@
       <c r="O262" s="1" t="n"/>
       <c r="P262" s="1" t="n"/>
       <c r="Q262" s="1" t="n"/>
-      <c r="R262" s="1" t="inlineStr">
+      <c r="R262" s="1" t="n">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>24401030229</t>
+        </is>
+      </c>
+      <c r="B263" s="1" t="inlineStr">
+        <is>
+          <t>24401030229</t>
+        </is>
+      </c>
+      <c r="C263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H263" s="1" t="inlineStr">
+        <is>
+          <t>罗大海</t>
+        </is>
+      </c>
+      <c r="I263" s="1" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="J263" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" s="1" t="n"/>
+      <c r="N263" s="1" t="n"/>
+      <c r="O263" s="1" t="n"/>
+      <c r="P263" s="1" t="n"/>
+      <c r="Q263" s="1" t="n"/>
+      <c r="R263" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>24401030227</t>
+        </is>
+      </c>
+      <c r="B264" s="1" t="inlineStr">
+        <is>
+          <t>24401030227</t>
+        </is>
+      </c>
+      <c r="C264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H264" s="1" t="inlineStr">
+        <is>
+          <t>罗大海</t>
+        </is>
+      </c>
+      <c r="I264" s="1" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="J264" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" s="1" t="n"/>
+      <c r="N264" s="1" t="n"/>
+      <c r="O264" s="1" t="n"/>
+      <c r="P264" s="1" t="n"/>
+      <c r="Q264" s="1" t="n"/>
+      <c r="R264" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>24401030230</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="inlineStr">
+        <is>
+          <t>24401030230</t>
+        </is>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H265" s="1" t="inlineStr">
+        <is>
+          <t>罗大海</t>
+        </is>
+      </c>
+      <c r="I265" s="1" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="J265" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" s="1" t="n"/>
+      <c r="N265" s="1" t="n"/>
+      <c r="O265" s="1" t="n"/>
+      <c r="P265" s="1" t="n"/>
+      <c r="Q265" s="1" t="n"/>
+      <c r="R265" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>25408030206</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="inlineStr">
+        <is>
+          <t>25408030206</t>
+        </is>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H266" s="1" t="inlineStr">
+        <is>
+          <t>追逐</t>
+        </is>
+      </c>
+      <c r="I266" s="1" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="J266" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K266" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" s="1" t="n"/>
+      <c r="N266" s="1" t="n"/>
+      <c r="O266" s="1" t="n"/>
+      <c r="P266" s="1" t="n"/>
+      <c r="Q266" s="1" t="n"/>
+      <c r="R266" s="1" t="inlineStr">
         <is>
           <t>None</t>
         </is>
